--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006007</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安积极配置混合A</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>54.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006008</t>
+          <t>000831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安积极配置混合C</t>
+          <t>工银瑞信医疗保健行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.62</t>
+          <t>42.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0519</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>006007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>诺安积极配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>19.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>创金合信医疗保健行业股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.27</t>
+          <t>12.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7622</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010500</t>
+          <t>005689</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银创新医疗混合C</t>
+          <t>中银医疗保健灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>82.60</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>003231</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票A</t>
+          <t>创金合信医疗保健行业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>94.71</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.95</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003231</t>
+          <t>008773</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信医疗保健行业股票C</t>
+          <t>中银景泰回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006569</t>
+          <t>005274</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数C</t>
+          <t>中银景福回报混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006692</t>
+          <t>161035</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金信消费升级股票A</t>
+          <t>富国中证医药主题指数增强型（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006693</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金信消费升级股票C</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000831</t>
+          <t>000059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信医疗保健行业股票</t>
+          <t>国联安中证医药100指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>34.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001219</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根动态多因子策略混合</t>
+          <t>天弘中证医药100指数型发起式 A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>006952</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>中银景元回报混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,25 +1110,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005274</t>
+          <t>002535</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中银景福回报混合</t>
+          <t>中银鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>25.51</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>000969</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 A</t>
+          <t>前海开源大安全核心精选灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001551</t>
+          <t>007318</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 C</t>
+          <t>中银民丰回报混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001563</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华富健康文娱灵活配置混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000059</t>
+          <t>001551</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国联安中证医药100指数A</t>
+          <t>天弘中证医药100指数型发起式 C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008773</t>
+          <t>002288</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中银景泰回报混合</t>
+          <t>中银稳进策略灵活配置混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>002288</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中银稳进策略灵活配置混合</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002535</t>
+          <t>006008</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中银鑫利灵活配置混合A</t>
+          <t>诺安积极配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1174,15 +1424,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>24.62</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1202,15 +1462,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>90.60</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>3.62</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005237</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>银华医疗健康量化优选股票A</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005238</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>银华医疗健康量化优选股票C</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.61</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1276,25 +1566,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>161035</t>
+          <t>005237</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>富国中证医药主题指数增强型（LOF）</t>
+          <t>银华医疗健康量化优选股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1304,25 +1604,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>001563</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>华富健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1332,25 +1642,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>003858</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>前海开源周期优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>94.37</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>5.06</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>003858</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合C</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>005238</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
+          <t>银华医疗健康量化优选股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>34.36</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1416,25 +1756,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>006952</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中银景元回报混合</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27.14</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1444,26 +1794,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007318</t>
+          <t>519157</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中银民丰回报混合</t>
+          <t>新华行业轮换灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -1472,25 +1832,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005689</t>
+          <t>010159</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中银医疗保健灵活配置混合A</t>
+          <t>中银医疗保健灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>82.68</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2.21</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1500,26 +1870,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>009317</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>金信核心竞争力灵活配置混合</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1528,25 +1908,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>010159</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中银医疗保健灵活配置混合C</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>82.68</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1556,26 +1946,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>009317</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>金信核心竞争力灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1584,26 +1984,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>519157</t>
+          <t>006569</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合C</t>
+          <t>国联安中证医药100指数C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>5</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,15 +2048,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>260116</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>景顺长城核心竞争力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>23.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>501066</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>28.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3327</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011478</t>
+          <t>163823</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银美丽城镇主题股票C</t>
+          <t>中银稳健策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>960008</t>
+          <t>000969</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城核心竞争力混合H</t>
+          <t>前海开源大安全核心精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003857</t>
+          <t>163209</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合A</t>
+          <t>诺安创业板指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003858</t>
+          <t>960008</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源周期优选灵活配置混合C</t>
+          <t>景顺长城核心竞争力混合H</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501066</t>
+          <t>003857</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红恒元五年定期开放灵活配置混合</t>
+          <t>前海开源周期优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.74</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>260116</t>
+          <t>003858</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城核心竞争力混合A</t>
+          <t>前海开源周期优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.02</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>001060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>前海开源高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27.57</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>163209</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）A</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010356</t>
+          <t>011478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺安创业板指数增强（LOF）C</t>
+          <t>工银美丽城镇主题股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2022,26 +2572,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>163823</t>
+          <t>010356</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>31.46</t>
-        </is>
-      </c>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2580,7 +2581,6 @@
           <t>诺安创业板指数增强（LOF）C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>92.10</t>
@@ -2595,6 +2595,706 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5886</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3301,4 +3302,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2957</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3852,4 +3853,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3861,7 +3862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3872,17 +3873,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3892,14 +3913,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.67</v>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>165.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3908,14 +3951,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.48</v>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4992</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3924,14 +3989,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3940,13 +4027,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>40</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4108,7 +4109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4119,17 +4120,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4139,14 +4160,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.28</v>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4155,14 +4198,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.67</v>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4171,14 +4236,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.48</v>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4187,14 +4274,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.53</v>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4203,13 +4312,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4431,7 +4432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4442,17 +4443,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4462,14 +4483,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4478,14 +4521,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.28</v>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4494,14 +4559,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.67</v>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4510,14 +4597,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.48</v>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4526,14 +4635,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.53</v>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4542,13 +4673,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>40</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300482-万孚生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>10.28</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>11.67</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>8.48</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>3.53</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>9.619999999999999</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1907,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2457,7 +2568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3157,7 +3268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3738,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
